--- a/fourier_curve1.xlsx
+++ b/fourier_curve1.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dnz-my.sharepoint.com/personal/simon_woodward_dairynz_co_nz/Documents/Documents/Projects/HydroMix_Paper/bach23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WoodwardS\OneDrive - DairyNZ Limited\Documents\Projects\HydroMix_Paper\bach_curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_C32340AB1950EA4EB8072D02E4620F9658B14C50" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="0" windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -65,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,307 +517,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.4522784227994418</c:v>
+                  <c:v>0.74913572307566967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45329679451466359</c:v>
+                  <c:v>0.74570564541083573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45431516622988538</c:v>
+                  <c:v>0.74227556774600179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45533353794510723</c:v>
+                  <c:v>0.73884549008116784</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45635190966032901</c:v>
+                  <c:v>0.7354154124163339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4573702813755508</c:v>
+                  <c:v>0.73198533475149996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.45838865309077259</c:v>
+                  <c:v>0.72855525708666602</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45940702480599438</c:v>
+                  <c:v>0.72512517942183208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.46042539652121617</c:v>
+                  <c:v>0.72169510175699814</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46144376823643801</c:v>
+                  <c:v>0.71826502409216419</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4624621399516598</c:v>
+                  <c:v>0.71483494642733025</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46348051166688159</c:v>
+                  <c:v>0.71140486876249631</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.46449888338210338</c:v>
+                  <c:v>0.70797479109766237</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46551725509732517</c:v>
+                  <c:v>0.70454471343282843</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46653562681254696</c:v>
+                  <c:v>0.70111463576799449</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.4675539985277688</c:v>
+                  <c:v>0.69768455810316055</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.46857237024299059</c:v>
+                  <c:v>0.6942544804383266</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.46959074195821238</c:v>
+                  <c:v>0.69082440277349266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47060911367343417</c:v>
+                  <c:v>0.68739432510865872</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.47162748538865595</c:v>
+                  <c:v>0.68396424744382478</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.47264585710387774</c:v>
+                  <c:v>0.68053416977899084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.47366422881909959</c:v>
+                  <c:v>0.6771040921141569</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47468260053432138</c:v>
+                  <c:v>0.67367401444932296</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.47570097224954316</c:v>
+                  <c:v>0.67024393678448901</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.47671934396476495</c:v>
+                  <c:v>0.66681385911965507</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.47773771567998674</c:v>
+                  <c:v>0.66338378145482124</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.47875608739520858</c:v>
+                  <c:v>0.6599537037899873</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.47977445911043037</c:v>
+                  <c:v>0.65652362612515336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.48079283082565216</c:v>
+                  <c:v>0.65309354846031942</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.48181120254087395</c:v>
+                  <c:v>0.64966347079548548</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.48282957425609574</c:v>
+                  <c:v>0.64623339313065153</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.48384794597131753</c:v>
+                  <c:v>0.64280331546581759</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.48486631768653937</c:v>
+                  <c:v>0.63937323780098365</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.48588468940176116</c:v>
+                  <c:v>0.63594316013614971</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.48690306111698295</c:v>
+                  <c:v>0.63251308247131577</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.48792143283220474</c:v>
+                  <c:v>0.62908300480648183</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.48893980454742653</c:v>
+                  <c:v>0.62565292714164789</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.48995817626264837</c:v>
+                  <c:v>0.62222284947681383</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.49097654797787016</c:v>
+                  <c:v>0.61879277181197989</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.49199491969309195</c:v>
+                  <c:v>0.61536269414714595</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.49301329140831374</c:v>
+                  <c:v>0.61193261648231201</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.49403166312353552</c:v>
+                  <c:v>0.60850253881747807</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.49505003483875731</c:v>
+                  <c:v>0.60507246115264413</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.49606840655397916</c:v>
+                  <c:v>0.60164238348781018</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.49708677826920095</c:v>
+                  <c:v>0.59821230582297635</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.49810514998442273</c:v>
+                  <c:v>0.59478222815814241</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.49912352169964452</c:v>
+                  <c:v>0.59135215049330847</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.50014189341486637</c:v>
+                  <c:v>0.58792207282847453</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.50116026513008816</c:v>
+                  <c:v>0.58449199516364059</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.50217863684530994</c:v>
+                  <c:v>0.58106191749880665</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.50319700856053173</c:v>
+                  <c:v>0.5776318398339727</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.50421538027575352</c:v>
+                  <c:v>0.57420176216913876</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.50523375199097531</c:v>
+                  <c:v>0.57077168450430482</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5062521237061971</c:v>
+                  <c:v>0.56734160683947088</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.50727049542141889</c:v>
+                  <c:v>0.56391152917463694</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.50828886713664068</c:v>
+                  <c:v>0.560481451509803</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.50930723885186246</c:v>
+                  <c:v>0.55705137384496906</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.51032561056708436</c:v>
+                  <c:v>0.55362129618013511</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.51134398228230615</c:v>
+                  <c:v>0.55019121851530117</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.51236235399752794</c:v>
+                  <c:v>0.54676114085046723</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.51338072571274973</c:v>
+                  <c:v>0.54333106318563329</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.51439909742797152</c:v>
+                  <c:v>0.53990098552079935</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.51541746914319331</c:v>
+                  <c:v>0.53647090785596541</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5164358408584151</c:v>
+                  <c:v>0.53304083019113147</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.51745421257363688</c:v>
+                  <c:v>0.52961075252629752</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.51847258428885867</c:v>
+                  <c:v>0.52618067486146358</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.51949095600408057</c:v>
+                  <c:v>0.52275059719662964</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.52050932771930225</c:v>
+                  <c:v>0.5193205195317957</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.52152769943452415</c:v>
+                  <c:v>0.51589044186696176</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.52254607114974594</c:v>
+                  <c:v>0.51246036420212782</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.52356444286496773</c:v>
+                  <c:v>0.50903028653729387</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.52458281458018952</c:v>
+                  <c:v>0.50560020887245993</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5256011862954113</c:v>
+                  <c:v>0.50217013120762599</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.52661955801063309</c:v>
+                  <c:v>0.49874005354279205</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.52763792972585488</c:v>
+                  <c:v>0.49530997587795811</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.52865630144107667</c:v>
+                  <c:v>0.49187989821312417</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.52967467315629846</c:v>
+                  <c:v>0.48844982054829023</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.53069304487152036</c:v>
+                  <c:v>0.48501974288345628</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.53171141658674204</c:v>
+                  <c:v>0.48158966521862234</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.53272978830196394</c:v>
+                  <c:v>0.4781595875537884</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.53374816001718572</c:v>
+                  <c:v>0.47472950988895446</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.53476653173240751</c:v>
+                  <c:v>0.47129943222412052</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5357849034476293</c:v>
+                  <c:v>0.46786935455928658</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.53680327516285109</c:v>
+                  <c:v>0.46443927689445264</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.53782164687807288</c:v>
+                  <c:v>0.46100919922961869</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.53884001859329467</c:v>
+                  <c:v>0.45757912156478475</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.53985839030851646</c:v>
+                  <c:v>0.45414904389995081</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.54087676202373824</c:v>
+                  <c:v>0.45071896623511687</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.54189513373896014</c:v>
+                  <c:v>0.44728888857028293</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.54291350545418193</c:v>
+                  <c:v>0.44385881090544899</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.54393187716940372</c:v>
+                  <c:v>0.44042873324061504</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.54495024888462551</c:v>
+                  <c:v>0.4369986555757811</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5459686205998473</c:v>
+                  <c:v>0.43356857791094716</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.54698699231506909</c:v>
+                  <c:v>0.43013850024611322</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.54800536403029088</c:v>
+                  <c:v>0.42670842258127928</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.54902373574551266</c:v>
+                  <c:v>0.42327834491644534</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.55004210746073445</c:v>
+                  <c:v>0.4198482672516114</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.55106047917595624</c:v>
+                  <c:v>0.41641818958677745</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.55207885089117803</c:v>
+                  <c:v>0.41298811192194351</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.55309722260639993</c:v>
+                  <c:v>0.40955803425710957</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.55411559432162172</c:v>
+                  <c:v>0.40612795659227563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,307 +1174,307 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="0">
-                  <c:v>0.4522784227994418</c:v>
+                  <c:v>0.74913572307566967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44890031543668446</c:v>
+                  <c:v>0.7494680533680419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4455356125224863</c:v>
+                  <c:v>0.74978238750238813</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44219766949883749</c:v>
+                  <c:v>0.75006080344964943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43889974398415299</c:v>
+                  <c:v>0.75028552714308283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43565494733464849</c:v>
+                  <c:v>0.75043900572154165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4324761967714304</c:v>
+                  <c:v>0.75050397989057427</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42937616825841213</c:v>
+                  <c:v>0.75046355511271678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42636725031322037</c:v>
+                  <c:v>0.75030127134298907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4234614989295919</c:v>
+                  <c:v>0.75000117103135977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.42067059378539673</c:v>
+                  <c:v>0.74954786512080296</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41800579590537784</c:v>
+                  <c:v>0.74892659677750117</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41547790694198433</c:v>
+                  <c:v>0.74812330259872406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41309723023132489</c:v>
+                  <c:v>0.74712467105389169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41087353377429847</c:v>
+                  <c:v>0.74591819792528236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40881601528540296</c:v>
+                  <c:v>0.74449223852671764</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.40693326944360692</c:v>
+                  <c:v>0.74283605649130846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.40523325747102695</c:v>
+                  <c:v>0.74093986893292541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.40372327915601747</c:v>
+                  <c:v>0.73879488780040758</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.40240994742768749</c:v>
+                  <c:v>0.73639335725859523</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.40129916557884854</c:v>
+                  <c:v>0.73372858694599541</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.40039610722400687</c:v>
+                  <c:v>0.73079498097521645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.39970519906828306</c:v>
+                  <c:v>0.72758806255915354</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.39923010655211799</c:v>
+                  <c:v>0.72410449416323242</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.39897372242534429</c:v>
+                  <c:v>0.72034209310172492</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.39893815829271689</c:v>
+                  <c:v>0.71629984251419299</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.39912473916134461</c:v>
+                  <c:v>0.71197789767641162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.39953400100869951</c:v>
+                  <c:v>0.70737758761859526</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.40016569137804037</c:v>
+                  <c:v>0.70250141204234051</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.40101877299622668</c:v>
+                  <c:v>0.69735303354631828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.40209143039705642</c:v>
+                  <c:v>0.69193726518933407</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.40338107952149321</c:v>
+                  <c:v>0.68626005343784802</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.4048843802544918</c:v>
+                  <c:v>0.68032845656333585</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.40659725184663481</c:v>
+                  <c:v>0.67415061857290581</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.40851489115751127</c:v>
+                  <c:v>0.66773573877429193</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.41063179364672531</c:v>
+                  <c:v>0.66109403709365566</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.41294177702768609</c:v>
+                  <c:v>0.65423671528146443</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.41543800748892384</c:v>
+                  <c:v>0.64717591415803599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4181130283776488</c:v>
+                  <c:v>0.63992466706604179</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.42095879123066177</c:v>
+                  <c:v>0.63249684971232412</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.42396668902856921</c:v>
+                  <c:v>0.62490712659571768</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.42712759154059277</c:v>
+                  <c:v>0.61717089423112503</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43043188261912468</c:v>
+                  <c:v>0.60930422139283213</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.43386949929559909</c:v>
+                  <c:v>0.601323786611904</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.43742997252225574</c:v>
+                  <c:v>0.59324681317342531</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.44110246939799258</c:v>
+                  <c:v>0.5850910018693164</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.44487583671076325</c:v>
+                  <c:v>0.57687446177140111</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.44873864562389876</c:v>
+                  <c:v>0.56861563929731185</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.45267923732933513</c:v>
+                  <c:v>0.56033324584864952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.45668576948703388</c:v>
+                  <c:v>0.55204618430654517</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.46074626326689733</c:v>
+                  <c:v>0.54377347467437642</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.46484865080722498</c:v>
+                  <c:v>0.53553417916085022</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.4689808229022327</c:v>
+                  <c:v>0.52734732699897258</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.4731306767303734</c:v>
+                  <c:v>0.51923183929756123</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.47728616343515795</c:v>
+                  <c:v>0.51120645422192545</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.48143533537087757</c:v>
+                  <c:v>0.50328965279913718</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.4855663928270717</c:v>
+                  <c:v>0.49549958564094432</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.48966773004776398</c:v>
+                  <c:v>0.48785400087385544</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.49372798036438925</c:v>
+                  <c:v>0.4803701735612545</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.49773606026495598</c:v>
+                  <c:v>0.47306483689661127</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.50168121222630058</c:v>
+                  <c:v>0.46595411543995791</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.50555304614129226</c:v>
+                  <c:v>0.45905346066183328</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.50934157917850931</c:v>
+                  <c:v>0.45237758904988223</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.51303727391820864</c:v>
+                  <c:v>0.44594042302327563</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.51663107461532731</c:v>
+                  <c:v>0.43975503488912959</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.52011444144776431</c:v>
+                  <c:v>0.433833594063185</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.52347938261624727</c:v>
+                  <c:v>0.4281873177642162</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.52671848417068656</c:v>
+                  <c:v>0.42282642537801851</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5298249374469941</c:v>
+                  <c:v>0.41776009667242631</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.53279256400788555</c:v>
+                  <c:v>0.41299643402970404</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.53561583799114187</c:v>
+                  <c:v>0.40854242884687941</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.53828990577913871</c:v>
+                  <c:v>0.40440393223822435</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.54081060291412841</c:v>
+                  <c:v>0.40058563015719029</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.54317446819472726</c:v>
+                  <c:v>0.3970910230377433</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.54537875490028553</c:v>
+                  <c:v>0.39392241003728623</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.54742143910124286</c:v>
+                  <c:v>0.3910808779452708</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.54930122502517231</c:v>
+                  <c:v>0.38856629480326382</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.55101754745992026</c:v>
+                  <c:v>0.38637730826370908</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.55257057118703257</c:v>
+                  <c:v>0.38451134869599612</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.55396118745046774</c:v>
+                  <c:v>0.38296463702977956</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.55519100747737005</c:v>
+                  <c:v>0.38173219730686209</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.55626235307940297</c:v>
+                  <c:v>0.38080787389443682</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.55717824437473018</c:v>
+                  <c:v>0.3801843532941479</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.55794238468217627</c:v>
+                  <c:v>0.37985319046335231</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.55855914265032747</c:v>
+                  <c:v>0.37980483954721106</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.55903353169531378</c:v>
+                  <c:v>0.38002868890288966</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.55937118683169884</c:v>
+                  <c:v>0.38051310028025437</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.55957833899125586</c:v>
+                  <c:v>0.38124545200710236</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5596617869343784</c:v>
+                  <c:v>0.38221218601119977</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.55962886686842894</c:v>
+                  <c:v>0.38339885849630989</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.55948741989643591</c:v>
+                  <c:v>0.38479019407500692</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.55924575742815019</c:v>
+                  <c:v>0.38637014314747409</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.55891262469356717</c:v>
+                  <c:v>0.38812194230270369</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.55849716250654635</c:v>
+                  <c:v>0.39002817750662466</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.55800886743310296</c:v>
+                  <c:v>0.39207084983071411</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.55745755052527723</c:v>
+                  <c:v>0.39423144346464756</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5568532947871786</c:v>
+                  <c:v>0.39649099574755653</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5562064115448303</c:v>
+                  <c:v>0.39883016894451229</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.55552739589578926</c:v>
+                  <c:v>0.40122932348798906</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.55482688141816827</c:v>
+                  <c:v>0.40366859239828901</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.55411559432162161</c:v>
+                  <c:v>0.40612795659227602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,7 +2272,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2579,11 +2592,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,14 +2621,14 @@
       </c>
       <c r="C4">
         <f ca="1">(RAND()+RAND())/2</f>
-        <v>0.4522784227994418</v>
+        <v>0.74913572307566967</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
         <f ca="1">$C$4+($C$5-$C$4)*E4</f>
-        <v>0.4522784227994418</v>
+        <v>0.74913572307566967</v>
       </c>
       <c r="G4">
         <f ca="1">$C$9*SIN(PI()*E4)+$C$10*SIN(2*PI()*E4)</f>
@@ -2623,7 +2636,7 @@
       </c>
       <c r="H4">
         <f ca="1">G4+F4</f>
-        <v>0.4522784227994418</v>
+        <v>0.74913572307566967</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -2632,7 +2645,7 @@
       </c>
       <c r="C5">
         <f ca="1">(RAND()+RAND())/2</f>
-        <v>0.55411559432162161</v>
+        <v>0.40612795659227585</v>
       </c>
       <c r="E5">
         <f>E4+0.01</f>
@@ -2640,15 +2653,15 @@
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F68" ca="1" si="0">$C$4+($C$5-$C$4)*E5</f>
-        <v>0.45329679451466359</v>
+        <v>0.74570564541083573</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G68" ca="1" si="1">$C$9*SIN(PI()*E5)+$C$10*SIN(2*PI()*E5)</f>
-        <v>-4.3964790779791076E-3</v>
+        <v>3.7624079572061951E-3</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:H68" ca="1" si="2">G5+F5</f>
-        <v>0.44890031543668446</v>
+        <v>0.7494680533680419</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -2657,7 +2670,7 @@
       </c>
       <c r="C6">
         <f ca="1">RAND()-RAND()</f>
-        <v>-0.43987147876464694</v>
+        <v>0.37654097899562033</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E69" si="3">E5+0.01</f>
@@ -2665,15 +2678,15 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45431516622988538</v>
+        <v>0.74227556774600179</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.7795537073990706E-3</v>
+        <v>7.506819756386323E-3</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4455356125224863</v>
+        <v>0.74978238750238813</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2682,7 +2695,7 @@
       </c>
       <c r="C7">
         <f ca="1">RAND()-RAND()</f>
-        <v>-0.17314557965685973</v>
+        <v>0.58927936149151627</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
@@ -2690,15 +2703,15 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45533353794510723</v>
+        <v>0.73884549008116784</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.3135868446269745E-2</v>
+        <v>1.1215313368481567E-2</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44219766949883749</v>
+        <v>0.75006080344964943</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -2708,15 +2721,15 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45635190966032901</v>
+        <v>0.7354154124163339</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7452165676176044E-2</v>
+        <v>1.4870114726748887E-2</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43889974398415299</v>
+        <v>0.75028552714308283</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -2725,7 +2738,7 @@
       </c>
       <c r="C9">
         <f ca="1">(C6-2*PI()*C10)/PI()</f>
-        <v>-4.245074529363449E-2</v>
+        <v>-3.3858365159596199E-2</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
@@ -2733,15 +2746,15 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4573702813755508</v>
+        <v>0.73198533475149996</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.1715334040902302E-2</v>
+        <v>1.8453670970041646E-2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43565494733464849</v>
+        <v>0.75043900572154165</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -2750,7 +2763,7 @@
       </c>
       <c r="C10">
         <f ca="1">(C6+C7)/(4*PI())</f>
-        <v>-4.8782347523717989E-2</v>
+        <v>7.6857540663612611E-2</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
@@ -2758,15 +2771,15 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45838865309077259</v>
+        <v>0.72855525708666602</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5912456319342188E-2</v>
+        <v>2.1948722803908208E-2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4324761967714304</v>
+        <v>0.75050397989057427</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -2776,15 +2789,15 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45940702480599438</v>
+        <v>0.72512517942183208</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0030856547582276E-2</v>
+        <v>2.5338375690884665E-2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42937616825841213</v>
+        <v>0.75046355511271678</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -2793,7 +2806,7 @@
       </c>
       <c r="C12">
         <f ca="1">$C$9*PI()*COS(PI()*0)+$C$10*2*PI()*COS(2*PI()*0)</f>
-        <v>-0.43987147876464694</v>
+        <v>0.37654097899562033</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
@@ -2801,15 +2814,15 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46042539652121617</v>
+        <v>0.72169510175699814</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4058146207995812E-2</v>
+        <v>2.8606169585990934E-2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42636725031322037</v>
+        <v>0.75030127134298907</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -2818,7 +2831,7 @@
       </c>
       <c r="C13">
         <f ca="1">$C$9*PI()*COS(PI()*1)+$C$10*2*PI()*COS(2*PI()*1)</f>
-        <v>-0.17314557965685973</v>
+        <v>0.58927936149151638</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
@@ -2826,15 +2839,15 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46144376823643801</v>
+        <v>0.71826502409216419</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7982269306846096E-2</v>
+        <v>3.1736146939195603E-2</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4234614989295919</v>
+        <v>0.75000117103135977</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -2844,15 +2857,15 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4624621399516598</v>
+        <v>0.71483494642733025</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1791546166263051E-2</v>
+        <v>3.4712918693472698E-2</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42067059378539673</v>
+        <v>0.74954786512080296</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -2862,15 +2875,15 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46348051166688159</v>
+        <v>0.71140486876249631</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5474715761503769E-2</v>
+        <v>3.7521728015004856E-2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41800579590537784</v>
+        <v>0.74892659677750117</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -2880,15 +2893,15 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46449888338210338</v>
+        <v>0.70797479109766237</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.902097644011906E-2</v>
+        <v>4.0148511501061676E-2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41547790694198433</v>
+        <v>0.74812330259872406</v>
       </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.25">
@@ -2898,15 +2911,15 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46551725509732517</v>
+        <v>0.70454471343282843</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.242002486600026E-2</v>
+        <v>4.2579957621063223E-2</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41309723023132489</v>
+        <v>0.74712467105389169</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
@@ -2916,15 +2929,15 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46653562681254696</v>
+        <v>0.70111463576799449</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.566209303824847E-2</v>
+        <v>4.4803562157287827E-2</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41087353377429847</v>
+        <v>0.74591819792528236</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
@@ -2934,15 +2947,15 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4675539985277688</v>
+        <v>0.69768455810316055</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8737983242365829E-2</v>
+        <v>4.6807680423557041E-2</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40881601528540296</v>
+        <v>0.74449223852671764</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.25">
@@ -2952,15 +2965,15 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46857237024299059</v>
+        <v>0.6942544804383266</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.1639100799383686E-2</v>
+        <v>4.8581576052981822E-2</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40693326944360692</v>
+        <v>0.74283605649130846</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -2970,15 +2983,15 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46959074195821238</v>
+        <v>0.69082440277349266</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4357484487185423E-2</v>
+        <v>5.0115466159432721E-2</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40523325747102695</v>
+        <v>0.74093986893292541</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
@@ -2988,15 +3001,15 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47060911367343417</v>
+        <v>0.68739432510865872</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.688583451741667E-2</v>
+        <v>5.1400562691748877E-2</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40372327915601747</v>
+        <v>0.73879488780040758</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
@@ -3006,15 +3019,15 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47162748538865595</v>
+        <v>0.68396424744382478</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9217537960968467E-2</v>
+        <v>5.2429109814770405E-2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40240994742768749</v>
+        <v>0.73639335725859523</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
@@ -3024,15 +3037,15 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47264585710387774</v>
+        <v>0.68053416977899084</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1346691525029204E-2</v>
+        <v>5.3194417167004585E-2</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40129916557884854</v>
+        <v>0.73372858694599541</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
@@ -3042,15 +3055,15 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47366422881909959</v>
+        <v>0.6771040921141569</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.3268121595092703E-2</v>
+        <v>5.3690888861059521E-2</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40039610722400687</v>
+        <v>0.73079498097521645</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
@@ -3060,15 +3073,15 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47468260053432138</v>
+        <v>0.67367401444932296</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.4977401466038318E-2</v>
+        <v>5.3914048109830581E-2</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39970519906828306</v>
+        <v>0.72758806255915354</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
@@ -3078,15 +3091,15 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47570097224954316</v>
+        <v>0.67024393678448901</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.64708656974252E-2</v>
+        <v>5.3860557378743457E-2</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39923010655211799</v>
+        <v>0.72410449416323242</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
@@ -3096,15 +3109,15 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47671934396476495</v>
+        <v>0.66681385911965507</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7745621539420662E-2</v>
+        <v>5.3528233982069809E-2</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39897372242534429</v>
+        <v>0.72034209310172492</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
@@ -3114,15 +3127,15 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47773771567998674</v>
+        <v>0.66338378145482124</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8799557387269861E-2</v>
+        <v>5.2916061059371793E-2</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39893815829271689</v>
+        <v>0.71629984251419299</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
@@ -3132,15 +3145,15 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47875608739520858</v>
+        <v>0.6599537037899873</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9631348233863947E-2</v>
+        <v>5.2024193886424361E-2</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39912473916134461</v>
+        <v>0.71197789767641162</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
@@ -3150,15 +3163,15 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47977445911043037</v>
+        <v>0.65652362612515336</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0240458101730888E-2</v>
+        <v>5.0853961493441957E-2</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39953400100869951</v>
+        <v>0.70737758761859526</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
@@ -3168,15 +3181,15 @@
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48079283082565216</v>
+        <v>0.65309354846031942</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0627139447611795E-2</v>
+        <v>4.940786358202115E-2</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40016569137804037</v>
+        <v>0.70250141204234051</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
@@ -3186,15 +3199,15 @@
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48181120254087395</v>
+        <v>0.64966347079548548</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0792429544647257E-2</v>
+        <v>4.7689562750832824E-2</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40101877299622668</v>
+        <v>0.69735303354631828</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
@@ -3204,15 +3217,15 @@
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48282957425609574</v>
+        <v>0.64623339313065153</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0738143859039352E-2</v>
+        <v>4.5703872058682538E-2</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40209143039705642</v>
+        <v>0.69193726518933407</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
@@ -3222,15 +3235,15 @@
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48384794597131753</v>
+        <v>0.64280331546581759</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.0466866449824315E-2</v>
+        <v>4.3456737972030451E-2</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40338107952149321</v>
+        <v>0.68626005343784802</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
@@ -3240,15 +3253,15 @@
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48486631768653937</v>
+        <v>0.63937323780098365</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.9981937432047595E-2</v>
+        <v>4.0955218762352245E-2</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4048843802544918</v>
+        <v>0.68032845656333585</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
@@ -3258,15 +3271,15 @@
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48588468940176116</v>
+        <v>0.63594316013614971</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.928743755512635E-2</v>
+        <v>3.8207458436756048E-2</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40659725184663481</v>
+        <v>0.67415061857290581</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
@@ -3276,15 +3289,15 @@
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48690306111698295</v>
+        <v>0.63251308247131577</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.8388169959471676E-2</v>
+        <v>3.5222656302976205E-2</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40851489115751127</v>
+        <v>0.66773573877429193</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
@@ -3294,15 +3307,15 @@
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48792143283220474</v>
+        <v>0.62908300480648183</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.7289639185479458E-2</v>
+        <v>3.2011032287173793E-2</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41063179364672531</v>
+        <v>0.66109403709365566</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.25">
@@ -3312,15 +3325,15 @@
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48893980454742653</v>
+        <v>0.62565292714164789</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.5998027519740469E-2</v>
+        <v>2.8583788139816595E-2</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41294177702768609</v>
+        <v>0.65423671528146443</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.25">
@@ -3330,15 +3343,15 @@
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48995817626264837</v>
+        <v>0.62222284947681383</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.4520168773724527E-2</v>
+        <v>2.4953064681222194E-2</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41543800748892384</v>
+        <v>0.64717591415803599</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.25">
@@ -3348,15 +3361,15 @@
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49097654797787016</v>
+        <v>0.61879277181197989</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.286351960022136E-2</v>
+        <v>2.1131895254061901E-2</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4181130283776488</v>
+        <v>0.63992466706604179</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.25">
@@ -3366,15 +3379,15 @@
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49199491969309195</v>
+        <v>0.61536269414714595</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="1"/>
-        <v>-7.1036128462430181E-2</v>
+        <v>1.7134155565178208E-2</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42095879123066177</v>
+        <v>0.63249684971232412</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.25">
@@ -3384,15 +3397,15 @@
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49301329140831374</v>
+        <v>0.61193261648231201</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.904660237974454E-2</v>
+        <v>1.297451011340571E-2</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42396668902856921</v>
+        <v>0.62490712659571768</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.25">
@@ -3402,15 +3415,15 @@
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49403166312353552</v>
+        <v>0.60850253881747807</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.6904071582942759E-2</v>
+        <v>8.6683554136469249E-3</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42712759154059277</v>
+        <v>0.61717089423112503</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.25">
@@ -3420,15 +3433,15 @@
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49505003483875731</v>
+        <v>0.60507246115264413</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.4618152219632657E-2</v>
+        <v>4.231760240188065E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43043188261912468</v>
+        <v>0.60930422139283213</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.25">
@@ -3438,15 +3451,15 @@
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49606840655397916</v>
+        <v>0.60164238348781018</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2198907258380079E-2</v>
+        <v>-3.1859687590615748E-4</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43386949929559909</v>
+        <v>0.601323786611904</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.25">
@@ -3456,15 +3469,15 @@
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49708677826920095</v>
+        <v>0.59821230582297635</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9656805746945193E-2</v>
+        <v>-4.9654926495510121E-3</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43742997252225574</v>
+        <v>0.59324681317342531</v>
       </c>
     </row>
     <row r="49" spans="5:8" x14ac:dyDescent="0.25">
@@ -3474,15 +3487,15 @@
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49810514998442273</v>
+        <v>0.59478222815814241</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.7002680586430141E-2</v>
+        <v>-9.6912262888260159E-3</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44110246939799258</v>
+        <v>0.5850910018693164</v>
       </c>
     </row>
     <row r="50" spans="5:8" x14ac:dyDescent="0.25">
@@ -3492,15 +3505,15 @@
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49912352169964452</v>
+        <v>0.59135215049330847</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.4247684988881259E-2</v>
+        <v>-1.4477688721907349E-2</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44487583671076325</v>
+        <v>0.57687446177140111</v>
       </c>
     </row>
     <row r="51" spans="5:8" x14ac:dyDescent="0.25">
@@ -3510,15 +3523,15 @@
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50014189341486637</v>
+        <v>0.58792207282847453</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.1403247790967589E-2</v>
+        <v>-1.9306433531162657E-2</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44873864562389876</v>
+        <v>0.56861563929731185</v>
       </c>
     </row>
     <row r="52" spans="5:8" x14ac:dyDescent="0.25">
@@ -3528,15 +3541,15 @@
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50116026513008816</v>
+        <v>0.58449199516364059</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.8481027800753008E-2</v>
+        <v>-2.415874931499111E-2</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45267923732933513</v>
+        <v>0.56033324584864952</v>
       </c>
     </row>
     <row r="53" spans="5:8" x14ac:dyDescent="0.25">
@@ -3546,15 +3559,15 @@
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50217863684530994</v>
+        <v>0.58106191749880665</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.5492867358276068E-2</v>
+        <v>-2.9015733192261479E-2</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45668576948703388</v>
+        <v>0.55204618430654517</v>
       </c>
     </row>
     <row r="54" spans="5:8" x14ac:dyDescent="0.25">
@@ -3564,15 +3577,15 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50319700856053173</v>
+        <v>0.5776318398339727</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.2450745293634427E-2</v>
+        <v>-3.3858365159596289E-2</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46074626326689733</v>
+        <v>0.54377347467437642</v>
       </c>
     </row>
     <row r="55" spans="5:8" x14ac:dyDescent="0.25">
@@ -3582,15 +3595,15 @@
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50421538027575352</v>
+        <v>0.57420176216913876</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.9366729468528545E-2</v>
+        <v>-3.8667583008288584E-2</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46484865080722498</v>
+        <v>0.53553417916085022</v>
       </c>
     </row>
     <row r="56" spans="5:8" x14ac:dyDescent="0.25">
@@ -3600,15 +3613,15 @@
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50523375199097531</v>
+        <v>0.57077168450430482</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.6252929088742607E-2</v>
+        <v>-4.3424357505332245E-2</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4689808229022327</v>
+        <v>0.52734732699897258</v>
       </c>
     </row>
     <row r="57" spans="5:8" x14ac:dyDescent="0.25">
@@ -3618,15 +3631,15 @@
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5062521237061971</v>
+        <v>0.56734160683947088</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3121446975823685E-2</v>
+        <v>-4.8109767541909695E-2</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4731306767303734</v>
+        <v>0.51923183929756123</v>
       </c>
     </row>
     <row r="58" spans="5:8" x14ac:dyDescent="0.25">
@@ -3636,15 +3649,15 @@
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50727049542141889</v>
+        <v>0.56391152917463694</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.998433198626092E-2</v>
+        <v>-5.2705074952711477E-2</v>
       </c>
       <c r="H58">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47728616343515795</v>
+        <v>0.51120645422192545</v>
       </c>
     </row>
     <row r="59" spans="5:8" x14ac:dyDescent="0.25">
@@ -3654,15 +3667,15 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50828886713664068</v>
+        <v>0.560481451509803</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.6853531765763123E-2</v>
+        <v>-5.7191798710665778E-2</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48143533537087757</v>
+        <v>0.50328965279913718</v>
       </c>
     </row>
     <row r="60" spans="5:8" x14ac:dyDescent="0.25">
@@ -3672,15 +3685,15 @@
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50930723885186246</v>
+        <v>0.55705137384496906</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3740846024790763E-2</v>
+        <v>-6.1551788204024724E-2</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4855663928270717</v>
+        <v>0.49549958564094432</v>
       </c>
     </row>
     <row r="61" spans="5:8" x14ac:dyDescent="0.25">
@@ -3690,15 +3703,15 @@
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51032561056708436</v>
+        <v>0.55362129618013511</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0657880519320385E-2</v>
+        <v>-6.5767295306279686E-2</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48966773004776398</v>
+        <v>0.48785400087385544</v>
       </c>
     </row>
     <row r="62" spans="5:8" x14ac:dyDescent="0.25">
@@ -3708,15 +3721,15 @@
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51134398228230615</v>
+        <v>0.55019121851530117</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7616001917916908E-2</v>
+        <v>-6.9821044954046674E-2</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49372798036438925</v>
+        <v>0.4803701735612545</v>
       </c>
     </row>
     <row r="63" spans="5:8" x14ac:dyDescent="0.25">
@@ -3726,15 +3739,15 @@
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51236235399752794</v>
+        <v>0.54676114085046723</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4626293732571936E-2</v>
+        <v>-7.3696303953855971E-2</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49773606026495598</v>
+        <v>0.47306483689661127</v>
       </c>
     </row>
     <row r="64" spans="5:8" x14ac:dyDescent="0.25">
@@ -3744,15 +3757,15 @@
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51338072571274973</v>
+        <v>0.54333106318563329</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.169951348644915E-2</v>
+        <v>-7.7376947745675412E-2</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50168121222630058</v>
+        <v>0.46595411543995791</v>
       </c>
     </row>
     <row r="65" spans="5:8" x14ac:dyDescent="0.25">
@@ -3762,15 +3775,15 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51439909742797152</v>
+        <v>0.53990098552079935</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8460512866792747E-3</v>
+        <v>-8.0847524858966041E-2</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50555304614129226</v>
+        <v>0.45905346066183328</v>
       </c>
     </row>
     <row r="66" spans="5:8" x14ac:dyDescent="0.25">
@@ -3780,15 +3793,15 @@
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51541746914319331</v>
+        <v>0.53647090785596541</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.0758899646839518E-3</v>
+        <v>-8.4093318806083173E-2</v>
       </c>
       <c r="H66">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50934157917850931</v>
+        <v>0.45237758904988223</v>
       </c>
     </row>
     <row r="67" spans="5:8" x14ac:dyDescent="0.25">
@@ -3798,15 +3811,15 @@
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5164358408584151</v>
+        <v>0.53304083019113147</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3985669402064739E-3</v>
+        <v>-8.7100407167855859E-2</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51303727391820864</v>
+        <v>0.44594042302327563</v>
       </c>
     </row>
     <row r="68" spans="5:8" x14ac:dyDescent="0.25">
@@ -3816,15 +3829,15 @@
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51745421257363688</v>
+        <v>0.52961075252629752</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.2313795830952358E-4</v>
+        <v>-8.9855717637167917E-2</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51663107461532731</v>
+        <v>0.43975503488912959</v>
       </c>
     </row>
     <row r="69" spans="5:8" x14ac:dyDescent="0.25">
@@ -3834,33 +3847,33 @@
       </c>
       <c r="F69">
         <f t="shared" ref="F69:F104" ca="1" si="4">$C$4+($C$5-$C$4)*E69</f>
-        <v>0.51847258428885867</v>
+        <v>0.52618067486146358</v>
       </c>
       <c r="G69">
         <f t="shared" ref="G69:G104" ca="1" si="5">$C$9*SIN(PI()*E69)+$C$10*SIN(2*PI()*E69)</f>
-        <v>1.6418571589056005E-3</v>
+        <v>-9.2347080798278608E-2</v>
       </c>
       <c r="H69">
         <f t="shared" ref="H69:H104" ca="1" si="6">G69+F69</f>
-        <v>0.52011444144776431</v>
+        <v>0.433833594063185</v>
       </c>
     </row>
     <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70">
-        <f t="shared" ref="E70:E110" si="7">E69+0.01</f>
+        <f t="shared" ref="E70:E104" si="7">E69+0.01</f>
         <v>0.66000000000000036</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51949095600408057</v>
+        <v>0.52275059719662964</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9884266121667442E-3</v>
+        <v>-9.4563279432413425E-2</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52347938261624727</v>
+        <v>0.4281873177642162</v>
       </c>
     </row>
     <row r="71" spans="5:8" x14ac:dyDescent="0.25">
@@ -3870,15 +3883,15 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52050932771930225</v>
+        <v>0.5193205195317957</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2091564513842915E-3</v>
+        <v>-9.6494094153777188E-2</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52671848417068656</v>
+        <v>0.42282642537801851</v>
       </c>
     </row>
     <row r="72" spans="5:8" x14ac:dyDescent="0.25">
@@ -3888,15 +3901,15 @@
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52152769943452415</v>
+        <v>0.51589044186696176</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="5"/>
-        <v>8.2972380124700096E-3</v>
+        <v>-9.8130345194535451E-2</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5298249374469941</v>
+        <v>0.41776009667242631</v>
       </c>
     </row>
     <row r="73" spans="5:8" x14ac:dyDescent="0.25">
@@ -3906,15 +3919,15 @@
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52254607114974594</v>
+        <v>0.51246036420212782</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0246492858139646E-2</v>
+        <v>-9.946393017242379E-2</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53279256400788555</v>
+        <v>0.41299643402970404</v>
       </c>
     </row>
     <row r="74" spans="5:8" x14ac:dyDescent="0.25">
@@ -3924,15 +3937,15 @@
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52356444286496773</v>
+        <v>0.50903028653729387</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2051395126174189E-2</v>
+        <v>-0.10048785769041449</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53561583799114187</v>
+        <v>0.40854242884687941</v>
       </c>
     </row>
     <row r="75" spans="5:8" x14ac:dyDescent="0.25">
@@ -3942,15 +3955,15 @@
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52458281458018952</v>
+        <v>0.50560020887245993</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="5"/>
-        <v>1.370709119894923E-2</v>
+        <v>-0.10119627663423561</v>
       </c>
       <c r="H75">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53828990577913871</v>
+        <v>0.40440393223822435</v>
       </c>
     </row>
     <row r="76" spans="5:8" x14ac:dyDescent="0.25">
@@ -3960,15 +3973,15 @@
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5256011862954113</v>
+        <v>0.50217013120762599</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5209416618717074E-2</v>
+        <v>-0.1015845010504357</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54081060291412841</v>
+        <v>0.40058563015719029</v>
       </c>
     </row>
     <row r="77" spans="5:8" x14ac:dyDescent="0.25">
@@ -3978,15 +3991,15 @@
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52661955801063309</v>
+        <v>0.49874005354279205</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6554910184094211E-2</v>
+        <v>-0.10164903050504875</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54317446819472726</v>
+        <v>0.3970910230377433</v>
       </c>
     </row>
     <row r="78" spans="5:8" x14ac:dyDescent="0.25">
@@ -3996,15 +4009,15 @@
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52763792972585488</v>
+        <v>0.49530997587795811</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7740825174430635E-2</v>
+        <v>-0.10138756584067191</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54537875490028553</v>
+        <v>0.39392241003728623</v>
       </c>
     </row>
     <row r="79" spans="5:8" x14ac:dyDescent="0.25">
@@ -4014,15 +4027,15 @@
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52865630144107667</v>
+        <v>0.49187989821312417</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8765137660166159E-2</v>
+        <v>-0.1007990202678534</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54742143910124286</v>
+        <v>0.3910808779452708</v>
       </c>
     </row>
     <row r="80" spans="5:8" x14ac:dyDescent="0.25">
@@ -4032,15 +4045,15 @@
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52967467315629846</v>
+        <v>0.48844982054829023</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9626551868873906E-2</v>
+        <v>-9.9883525745026416E-2</v>
       </c>
       <c r="H80">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54930122502517231</v>
+        <v>0.38856629480326382</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.25">
@@ -4050,15 +4063,15 @@
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53069304487152036</v>
+        <v>0.48501974288345628</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0324502588399903E-2</v>
+        <v>-9.8642434619747213E-2</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55101754745992026</v>
+        <v>0.38637730826370908</v>
       </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.25">
@@ -4068,15 +4081,15 @@
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53171141658674204</v>
+        <v>0.48158966521862234</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="5"/>
-        <v>2.085915460029051E-2</v>
+        <v>-9.707831652262619E-2</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55257057118703257</v>
+        <v>0.38451134869599612</v>
       </c>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.25">
@@ -4086,15 +4099,15 @@
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53272978830196394</v>
+        <v>0.4781595875537884</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1231399148503759E-2</v>
+        <v>-9.5194950524008809E-2</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55396118745046774</v>
+        <v>0.38296463702977956</v>
       </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.25">
@@ -4104,15 +4117,15 @@
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53374816001718572</v>
+        <v>0.47472950988895446</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1442847460184277E-2</v>
+        <v>-9.2997312582092359E-2</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55519100747737005</v>
+        <v>0.38173219730686209</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.25">
@@ -4122,15 +4135,15 @@
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53476653173240751</v>
+        <v>0.47129943222412052</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1495821346995445E-2</v>
+        <v>-9.0491558329683724E-2</v>
       </c>
       <c r="H85">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55626235307940297</v>
+        <v>0.38080787389443682</v>
       </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.25">
@@ -4140,15 +4153,15 @@
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5357849034476293</v>
+        <v>0.46786935455928658</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1393340927100872E-2</v>
+        <v>-8.768500126513866E-2</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55717824437473018</v>
+        <v>0.3801843532941479</v>
       </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.25">
@@ -4158,15 +4171,15 @@
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53680327516285109</v>
+        <v>0.46443927689445264</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1139109519325169E-2</v>
+        <v>-8.4586086431100341E-2</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55794238468217627</v>
+        <v>0.37985319046335231</v>
       </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.25">
@@ -4176,15 +4189,15 @@
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53782164687807288</v>
+        <v>0.46100919922961869</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0737495772254633E-2</v>
+        <v>-8.1204359682407634E-2</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55855914265032747</v>
+        <v>0.37980483954721106</v>
       </c>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.25">
@@ -4194,15 +4207,15 @@
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53884001859329467</v>
+        <v>0.45757912156478475</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="5"/>
-        <v>2.0193513102019122E-2</v>
+        <v>-7.7550432661895111E-2</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55903353169531378</v>
+        <v>0.38002868890288966</v>
       </c>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.25">
@@ -4212,15 +4225,15 @@
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53985839030851646</v>
+        <v>0.45414904389995081</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="5"/>
-        <v>1.9512796523182375E-2</v>
+        <v>-7.3635943619696456E-2</v>
       </c>
       <c r="H90">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55937118683169884</v>
+        <v>0.38051310028025437</v>
       </c>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.25">
@@ -4230,15 +4243,15 @@
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54087676202373824</v>
+        <v>0.45071896623511687</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="5"/>
-        <v>1.8701576967517671E-2</v>
+        <v>-6.9473514228014538E-2</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55957833899125586</v>
+        <v>0.38124545200710236</v>
       </c>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.25">
@@ -4248,15 +4261,15 @@
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54189513373896014</v>
+        <v>0.44728888857028293</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7766653195418237E-2</v>
+        <v>-6.5076702559083127E-2</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5596617869343784</v>
+        <v>0.38221218601119977</v>
       </c>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.25">
@@ -4266,15 +4279,15 @@
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54291350545418193</v>
+        <v>0.44385881090544899</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6715361414247031E-2</v>
+        <v>-6.0459952409139081E-2</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55962886686842894</v>
+        <v>0.38339885849630989</v>
       </c>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.25">
@@ -4284,15 +4297,15 @@
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54393187716940372</v>
+        <v>0.44042873324061504</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5555542727032244E-2</v>
+        <v>-5.5638539165608146E-2</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55948741989643591</v>
+        <v>0.38479019407500692</v>
       </c>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.25">
@@ -4302,15 +4315,15 @@
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54495024888462551</v>
+        <v>0.4369986555757811</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="5"/>
-        <v>1.429550854352463E-2</v>
+        <v>-5.0628512428306988E-2</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55924575742815019</v>
+        <v>0.38637014314747409</v>
       </c>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.25">
@@ -4320,15 +4333,15 @@
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5459686205998473</v>
+        <v>0.43356857791094716</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2944004093719824E-2</v>
+        <v>-4.5446635608243496E-2</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55891262469356717</v>
+        <v>0.38812194230270369</v>
       </c>
     </row>
     <row r="97" spans="5:8" x14ac:dyDescent="0.25">
@@ -4338,15 +4351,15 @@
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54698699231506909</v>
+        <v>0.43013850024611322</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1510170191477299E-2</v>
+        <v>-4.0110322739488551E-2</v>
       </c>
       <c r="H97">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55849716250654635</v>
+        <v>0.39002817750662466</v>
       </c>
     </row>
     <row r="98" spans="5:8" x14ac:dyDescent="0.25">
@@ -4356,15 +4369,15 @@
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54800536403029088</v>
+        <v>0.42670842258127928</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0003503402812107E-2</v>
+        <v>-3.463757275056515E-2</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55800886743310296</v>
+        <v>0.39207084983071411</v>
       </c>
     </row>
     <row r="99" spans="5:8" x14ac:dyDescent="0.25">
@@ -4374,15 +4387,15 @@
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54902373574551266</v>
+        <v>0.42327834491644534</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4338147797645979E-3</v>
+        <v>-2.9046901451797797E-2</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55745755052527723</v>
+        <v>0.39423144346464756</v>
       </c>
     </row>
     <row r="100" spans="5:8" x14ac:dyDescent="0.25">
@@ -4392,15 +4405,15 @@
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55004210746073445</v>
+        <v>0.4198482672516114</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="5"/>
-        <v>6.811187326444177E-3</v>
+        <v>-2.335727150405488E-2</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5568532947871786</v>
+        <v>0.39649099574755653</v>
       </c>
     </row>
     <row r="101" spans="5:8" x14ac:dyDescent="0.25">
@@ -4410,15 +4423,15 @@
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55106047917595624</v>
+        <v>0.41641818958677745</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1459323688740491E-3</v>
+        <v>-1.7588020642265143E-2</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5562064115448303</v>
+        <v>0.39883016894451229</v>
       </c>
     </row>
     <row r="102" spans="5:8" x14ac:dyDescent="0.25">
@@ -4428,15 +4441,15 @@
       </c>
       <c r="F102">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55207885089117803</v>
+        <v>0.41298811192194351</v>
       </c>
       <c r="G102">
         <f t="shared" ca="1" si="5"/>
-        <v>3.4485450046112323E-3</v>
+        <v>-1.1758788433954444E-2</v>
       </c>
       <c r="H102">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55552739589578926</v>
+        <v>0.40122932348798906</v>
       </c>
     </row>
     <row r="103" spans="5:8" x14ac:dyDescent="0.25">
@@ -4446,15 +4459,15 @@
       </c>
       <c r="F103">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55309722260639993</v>
+        <v>0.40955803425710957</v>
       </c>
       <c r="G103">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7296588117683245E-3</v>
+        <v>-5.8894418588205915E-3</v>
       </c>
       <c r="H103">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55482688141816827</v>
+        <v>0.40366859239828901</v>
       </c>
     </row>
     <row r="104" spans="5:8" x14ac:dyDescent="0.25">
@@ -4464,15 +4477,15 @@
       </c>
       <c r="F104">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55411559432162172</v>
+        <v>0.40612795659227563</v>
       </c>
       <c r="G104">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.1562527495093066E-16</v>
+        <v>3.9351618638140621E-16</v>
       </c>
       <c r="H104">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55411559432162161</v>
+        <v>0.40612795659227602</v>
       </c>
     </row>
   </sheetData>
